--- a/dairyclimatemodel/results/formatted_results.xlsx
+++ b/dairyclimatemodel/results/formatted_results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E803E574-9CC4-4BE4-ABD7-C06730EE4B5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="greenhouse_gases" sheetId="1" r:id="rId1"/>
@@ -13,58 +19,25 @@
     <sheet name="income" sheetId="2" r:id="rId4"/>
     <sheet name="herd" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Total household income</t>
   </si>
   <si>
-    <t>hh1 - Base</t>
-  </si>
-  <si>
-    <t>hh1 -- Loan</t>
-  </si>
-  <si>
     <t>herd</t>
   </si>
   <si>
     <t xml:space="preserve">Milk </t>
   </si>
   <si>
-    <t>hh1 - Loan</t>
-  </si>
-  <si>
-    <t>Crop Income</t>
-  </si>
-  <si>
     <t>Livestock</t>
   </si>
   <si>
-    <t>hh2 - Base</t>
-  </si>
-  <si>
-    <t>hh2 -- Loan</t>
-  </si>
-  <si>
-    <t>hh2- Loan</t>
-  </si>
-  <si>
-    <t>Local Cows (head)</t>
-  </si>
-  <si>
-    <t>Improved Cows (head)</t>
-  </si>
-  <si>
-    <t>Manure N2O (leach)(kg CO2eq/kg milk)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manure N2O (vol) (kg CO2eq/kg milk)</t>
-  </si>
-  <si>
     <t>Total land use for dairy production (ha/hh/yr)</t>
   </si>
   <si>
@@ -83,12 +56,6 @@
     <t>Total pasture land use for dairy production (ha/hh/yr)</t>
   </si>
   <si>
-    <t>Improved non-cows (head)</t>
-  </si>
-  <si>
-    <t>Local non-cows (head)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enteric CH4 </t>
   </si>
   <si>
@@ -101,40 +68,79 @@
     <t xml:space="preserve">Soil N2O </t>
   </si>
   <si>
-    <t xml:space="preserve">Cropland conversion </t>
-  </si>
-  <si>
-    <t>Household 1 -- Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household 1 -- Base </t>
-  </si>
-  <si>
-    <t>Household 1 -- Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household 2 -- Base </t>
-  </si>
-  <si>
-    <t>Household 2 -- Input</t>
-  </si>
-  <si>
-    <t>Household 2 -- Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household 2 -- Contract &amp; Input </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household 1 -- Contract &amp; Input </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manure N2O</t>
+    <t>Manure N2O (leach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manure N2O (vol) </t>
+  </si>
+  <si>
+    <t>Manure N2O (direct)</t>
+  </si>
+  <si>
+    <t>Cropland conversion (CO2)</t>
+  </si>
+  <si>
+    <t>HH 1-- Scen 1</t>
+  </si>
+  <si>
+    <t>HH 2-- Scen 1</t>
+  </si>
+  <si>
+    <t>HH 1 -- Scen 2</t>
+  </si>
+  <si>
+    <t>HH 1-- Scen 3</t>
+  </si>
+  <si>
+    <t>HH 2-- Scen 3</t>
+  </si>
+  <si>
+    <t>HH 1 -- Scen 4</t>
+  </si>
+  <si>
+    <t>HH 2 -- Scen 2</t>
+  </si>
+  <si>
+    <t>HH 2 -- Scen 4</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Local Cows (TLU)</t>
+  </si>
+  <si>
+    <t>Local non-cows (TLU)</t>
+  </si>
+  <si>
+    <t>Improved non-cows (TLU)</t>
+  </si>
+  <si>
+    <t>Improved Cows (TLU)</t>
+  </si>
+  <si>
+    <t>TLUs</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>weaner</t>
+  </si>
+  <si>
+    <t>adult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -233,11 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -251,9 +256,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -261,6 +263,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -269,18 +320,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC00000"/>
+      <color rgb="FFCC3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -324,7 +384,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -334,28 +394,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Household 1 -- Base </c:v>
+                  <c:v>HH 1-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Household 1 -- Input</c:v>
+                  <c:v>HH 2-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Household 1 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Household 1 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Household 2 -- Base </c:v>
+                  <c:v>HH 1-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Household 2 -- Input</c:v>
+                  <c:v>HH 2-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Household 2 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Household 2 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -367,32 +427,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0293783964709735</c:v>
+                  <c:v>1.8301717450444712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1203643333073359</c:v>
+                  <c:v>1.3317816014662649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57944196466960551</c:v>
+                  <c:v>1.6309677133666423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57944196466960551</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71807341377940159</c:v>
+                  <c:v>1.2663173232050855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60096487085470751</c:v>
+                  <c:v>0.63109044098732614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69842205189743423</c:v>
+                  <c:v>0.80289090727219381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68478168976932807</c:v>
+                  <c:v>0.79237373661802324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58AF-410A-834D-A3475C992902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -408,6 +473,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CC3300"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -415,28 +485,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Household 1 -- Base </c:v>
+                  <c:v>HH 1-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Household 1 -- Input</c:v>
+                  <c:v>HH 2-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Household 1 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Household 1 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Household 2 -- Base </c:v>
+                  <c:v>HH 1-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Household 2 -- Input</c:v>
+                  <c:v>HH 2-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Household 2 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Household 2 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -448,32 +518,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54787979579287216</c:v>
+                  <c:v>0.93357475678555657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59688059881344468</c:v>
+                  <c:v>0.70454554022408677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30684993810201022</c:v>
+                  <c:v>0.83968891677575619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30684993810201022</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38091270627636892</c:v>
+                  <c:v>0.65091982442456531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30546032085643127</c:v>
+                  <c:v>0.31661042477691637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35653326413669773</c:v>
+                  <c:v>0.40502069926313355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3459593381209804</c:v>
+                  <c:v>0.40514386266054647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58AF-410A-834D-A3475C992902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -489,6 +564,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -496,28 +578,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Household 1 -- Base </c:v>
+                  <c:v>HH 1-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Household 1 -- Input</c:v>
+                  <c:v>HH 2-- Scen 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Household 1 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Household 1 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Household 2 -- Base </c:v>
+                  <c:v>HH 1-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Household 2 -- Input</c:v>
+                  <c:v>HH 2-- Scen 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Household 2 -- Contract</c:v>
+                  <c:v>HH 1 -- Scen 4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Household 2 -- Contract &amp; Input </c:v>
+                  <c:v>HH 2 -- Scen 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -529,113 +611,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.2090266680484572E-2</c:v>
+                  <c:v>0.14919771565027598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4216222327283845E-2</c:v>
+                  <c:v>0.79287349317001343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4547572018983428E-2</c:v>
+                  <c:v>0.13577567430451196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4547572018983428E-2</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4043567902412199E-2</c:v>
+                  <c:v>0.12169427172132412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5087735786071104E-2</c:v>
+                  <c:v>0.14320904858377323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1470910223049629E-3</c:v>
+                  <c:v>0.14924370976787441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3215657882101986E-2</c:v>
+                  <c:v>0.15685684010167808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58AF-410A-834D-A3475C992902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>greenhouse_gases!$A$4</c:f>
+              <c:f>greenhouse_gases!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Manure N2O</c:v>
+                  <c:v>Fossil fuel CO2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>greenhouse_gases!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Household 1 -- Base </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Household 1 -- Input</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Household 1 -- Contract</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Household 1 -- Contract &amp; Input </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Household 2 -- Base </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Household 2 -- Input</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Household 2 -- Contract</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Household 2 -- Contract &amp; Input </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>greenhouse_gases!$B$4:$I$4</c:f>
+              <c:f>greenhouse_gases!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>2.5302485735046433E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>5.4612845766508346E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>2.620930978153576E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>3.4895893858729481E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09</c:v>
+                  <c:v>1.8444863250097428E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>1.7176714145357937E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09</c:v>
+                  <c:v>1.2873007249982334E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-58AF-410A-834D-A3475C992902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -645,30 +710,35 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
+        <c:gapWidth val="216"/>
         <c:overlap val="100"/>
-        <c:axId val="175376384"/>
-        <c:axId val="173439744"/>
+        <c:axId val="228137472"/>
+        <c:axId val="152066240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175376384"/>
+        <c:axId val="228137472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173439744"/>
+        <c:spPr>
+          <a:ln w="6350"/>
+        </c:spPr>
+        <c:crossAx val="152066240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173439744"/>
+        <c:axId val="152066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,16 +752,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Greenhouse  gas emissions intensity (kg CO2eq/kg FPCM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -703,7 +772,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175376384"/>
+        <c:crossAx val="228137472"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -712,7 +781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -731,20 +799,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1017,18 +1091,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,190 +1116,177 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1.0293783964709735</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1.1203643333073359</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0.57944196466960551</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.57944196466960551</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.71807341377940159</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0.60096487085470751</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.69842205189743423</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.68478168976932807</v>
-      </c>
-      <c r="J2" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1.8301717450444712</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1.3317816014662649</v>
+      </c>
+      <c r="D2" s="56">
+        <v>1.6309677133666423</v>
+      </c>
+      <c r="E2" s="37">
+        <v>1.22</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1.2663173232050855</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.63109044098732614</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.80289090727219381</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.79237373661802324</v>
+      </c>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.54787979579287216</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.59688059881344468</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.30684993810201022</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.30684993810201022</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.38091270627636892</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.30546032085643127</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.35653326413669773</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.3459593381209804</v>
-      </c>
-      <c r="J3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0.93357475678555657</v>
+      </c>
+      <c r="C3" s="49">
+        <v>0.70454554022408677</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0.83968891677575619</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.65091982442456531</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.31661042477691637</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.40502069926313355</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.40514386266054647</v>
+      </c>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>0.09</v>
-      </c>
-      <c r="E4">
-        <v>0.08</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
-      </c>
-      <c r="G4">
-        <v>0.09</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.09</v>
+      <c r="A4" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="45">
+        <v>2.5302485735046433E-2</v>
+      </c>
+      <c r="C7" s="50">
+        <v>5.4612845766508346E-4</v>
+      </c>
+      <c r="D7" s="57">
+        <v>2.620930978153576E-2</v>
+      </c>
+      <c r="E7" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.4895893858729481E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.8444863250097428E-2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1.7176714145357937E-2</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1.2873007249982334E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14">
-        <v>7.2090266680484572E-2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>2.4216222327283845E-2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5.4547572018983428E-2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>5.4547572018983428E-2</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1.4043567902412199E-2</v>
-      </c>
-      <c r="G8" s="18">
-        <v>9.5087735786071104E-2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>7.1470910223049629E-3</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4.3215657882101986E-2</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="45">
+        <v>0.14919771565027598</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.79287349317001343</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0.13577567430451196</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.12169427172132412</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.14320904858377323</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.14924370976787441</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.15685684010167808</v>
+      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="15">
-        <v>2.5907464320643757E-6</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1.0343918782211347E-5</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1.0343918782211347E-5</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8">
-        <v>3.4517087017489867E-4</v>
-      </c>
-      <c r="H9" s="9">
-        <v>7.0767051945166964E-6</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1.3530905137333694E-5</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -1255,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="B2" sqref="B2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,129 +1328,214 @@
     <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46">
+        <v>3.6012935323479938</v>
+      </c>
+      <c r="C2" s="52">
+        <v>5.9343548142775937</v>
+      </c>
+      <c r="D2" s="59">
+        <v>3.2083188589267166</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="18">
+        <v>6.8302194864402814</v>
+      </c>
+      <c r="G2" s="18">
+        <v>8.5552704905011367</v>
+      </c>
+      <c r="H2" s="30">
+        <v>9.7695158828521365</v>
+      </c>
+      <c r="I2" s="30">
+        <v>8.875444943632214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="46">
+        <v>2.2627789899713155</v>
+      </c>
+      <c r="C3" s="52">
+        <v>2.0091394262476494</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1.9545244911629407</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="19">
+        <v>3.6579798234674157</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5.4379926698909307</v>
+      </c>
+      <c r="H3" s="31">
+        <v>5.3449172624330599</v>
+      </c>
+      <c r="I3" s="31">
+        <v>4.3348559491078236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1.131453982271297</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1.4047263422045435</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.99345564697832267</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="20">
+        <v>1.0282388496456829</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2.0084322231934779</v>
+      </c>
+      <c r="H4" s="32">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I4" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1.1313250077000185</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0.60441308404310568</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.96106884418461802</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="21">
+        <v>2.629740973821733</v>
+      </c>
+      <c r="G5" s="21">
+        <v>3.4295604466974519</v>
+      </c>
+      <c r="H5" s="33">
+        <v>3.3449172624330599</v>
+      </c>
+      <c r="I5" s="33">
+        <v>2.334855949107824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="52">
+        <v>0.81229445829667268</v>
+      </c>
+      <c r="D6" s="59">
+        <v>1.5557510731587592</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="22">
+        <v>0.68785514444282092</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1.2441251994395883</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2.85053684939429</v>
+      </c>
+      <c r="I6" s="34">
+        <v>2.5359380856290534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>4.6910135133754238</v>
-      </c>
-      <c r="C2">
-        <v>12.62607024110768</v>
-      </c>
-      <c r="D2">
-        <v>18.97352790145262</v>
-      </c>
-      <c r="E2">
-        <v>5.4825672052996497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1.6802347358682908</v>
-      </c>
-      <c r="C3">
-        <v>1.1129435427928625</v>
-      </c>
-      <c r="D3">
-        <v>1.7945284837686641</v>
-      </c>
-      <c r="E3">
-        <v>1.6888803720506149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>1.1262135922330097</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.61735200263297885</v>
-      </c>
-      <c r="E4">
-        <v>1.1262135922330097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>0.55402114363528121</v>
-      </c>
-      <c r="C5">
-        <v>1.1129435427928627</v>
-      </c>
-      <c r="D5">
-        <v>1.1771764811356853</v>
-      </c>
-      <c r="E5">
-        <v>0.56266677981760549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1.0080949020876121E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.70942722485956788</v>
-      </c>
-      <c r="D6">
-        <v>1.3447010064613201</v>
-      </c>
-      <c r="E6">
-        <v>8.4624231613823597E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>2.8898073892566196</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="46">
+        <v>1.8207983931591958</v>
+      </c>
+      <c r="C7" s="52">
+        <v>3.2839724959278471</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="23">
+        <v>3.1148137328968404</v>
+      </c>
+      <c r="G7" s="23">
+        <v>3.1322726362532181</v>
+      </c>
+      <c r="H7" s="35">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>1.0425873401481127</v>
-      </c>
-      <c r="E7">
-        <v>2.7781960538831529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,11 +1553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,35 +1566,88 @@
     <col min="3" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2473.9475865692293</v>
-      </c>
-      <c r="C2">
-        <v>10620.618460919348</v>
-      </c>
-      <c r="D2">
-        <v>3673.8956626837485</v>
-      </c>
-      <c r="E2">
-        <v>7131.2091808429086</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1581.5373495241231</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1316.0661081667665</v>
+      </c>
+      <c r="D2" s="60">
+        <v>1550.2821682892015</v>
+      </c>
+      <c r="E2" s="62">
+        <v>9257.5807429304168</v>
+      </c>
+      <c r="F2" s="24">
+        <v>4122.3121099480204</v>
+      </c>
+      <c r="G2" s="24">
+        <v>9169.5349406984878</v>
+      </c>
+      <c r="H2" s="36">
+        <v>8692.172133221482</v>
+      </c>
+      <c r="I2" s="36">
+        <v>8098.3313621929574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="48">
+        <v>434.65329150271015</v>
+      </c>
+      <c r="C3" s="51">
+        <v>877.78609274215034</v>
+      </c>
+      <c r="D3" s="60">
+        <v>426.35188047778723</v>
+      </c>
+      <c r="E3" s="62">
+        <v>217.39754618849622</v>
+      </c>
+      <c r="F3" s="24">
+        <v>380.9656948658772</v>
+      </c>
+      <c r="G3" s="24">
+        <v>79.469273199722991</v>
+      </c>
+      <c r="H3" s="36">
+        <v>89.003984246220142</v>
+      </c>
+      <c r="I3" s="36">
+        <v>80.428813615441186</v>
       </c>
     </row>
   </sheetData>
@@ -1457,191 +1656,164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L23"/>
+      <selection activeCell="B2" sqref="B2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>949429.20586363028</v>
-      </c>
-      <c r="C2">
-        <v>5440641.6466222471</v>
-      </c>
-      <c r="D2">
-        <v>1674952.6060369322</v>
-      </c>
-      <c r="E2">
-        <v>3295494.609861997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1316181.8181818179</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>499938.64023387717</v>
+      </c>
+      <c r="C2" s="2">
+        <v>817284.78329074057</v>
+      </c>
+      <c r="D2" s="2">
+        <v>381635.70813780709</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>580439.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2248287.7999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2567332.9836419253</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2641772.4627238996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>2947429.2058636299</v>
+      <c r="B4" s="2">
+        <v>2879938.6402338771</v>
       </c>
       <c r="C4" s="2">
-        <v>8639323.4648040645</v>
-      </c>
-      <c r="D4">
-        <v>3672952.6060369317</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5175994.6098619979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>B2/2254</f>
-        <v>421.21970091554141</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:E12" si="0">C2/2254</f>
-        <v>2413.7718041802336</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>743.10230968807991</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1462.0650443043464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f t="shared" ref="B13:E14" si="1">B3/2254</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>583.93159635395648</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>1307.643835786881</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>3832.8852993806854</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1629.5264445594196</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>2296.3596317045244</v>
-      </c>
-    </row>
+        <v>3137284.7832907401</v>
+      </c>
+      <c r="D4" s="61">
+        <v>2761635.708137807</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2960439.06</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4568287.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4947332.9836419262</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4961772.4627238996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
     <row r="19" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <v>0.61</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>1.18</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>1.69</v>
       </c>
     </row>
     <row r="22" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>2.89</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>3</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>1.04</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="23" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>0.01</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>0.71</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>1.34</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>0.08</v>
       </c>
     </row>
@@ -1652,152 +1824,390 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2">
+        <v>2.42</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.85</v>
+      </c>
+      <c r="F2">
+        <v>2.48</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>2.46</v>
       </c>
-      <c r="C2">
-        <v>2.14</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>1.4316826311164521</v>
+        <v>2.19</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0373971394397925</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58">
+        <v>2.153169678179446</v>
+      </c>
+      <c r="F3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2.3262426923849562</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>1.83</v>
       </c>
       <c r="D4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E4">
-        <f>4.56-E5</f>
-        <v>2.6015295172002695</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="55">
+        <v>1.4</v>
+      </c>
+      <c r="N4" s="55">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0.56385525606989495</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.6132428034430675</v>
-      </c>
-      <c r="E5">
-        <v>1.9584704827997301</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="53">
+        <v>1.2187735414199781</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.38</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I5">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D6" s="58"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="58"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11" s="58"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="1"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="55">
+        <f>2.42*0.5</f>
+        <v>1.21</v>
+      </c>
+      <c r="C13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="55">
+        <f>2.42*2.4</f>
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <f>2.42*2.48</f>
+        <v>6.0015999999999998</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <f>2.42*2.46</f>
+        <v>5.9531999999999998</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="1"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="54">
+        <f>2.19*1.4</f>
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0</v>
+      </c>
+      <c r="D14" s="55">
+        <f>1.4*2.19</f>
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <f>1.4*2.3</f>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55">
+        <f>1.4*2.32624269238496</f>
+        <v>3.2567397693389442</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="55">
+        <v>0</v>
+      </c>
+      <c r="C15" s="55">
+        <f>0.6*1.83</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <f>0.6*2.06</f>
+        <v>1.236</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <f>0.6*2.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="54">
+        <f>0.6*0.1</f>
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="55">
+        <f>0.6*2.55</f>
+        <v>1.5299999999999998</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-      <c r="I16" s="1"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="55">
+        <v>0</v>
+      </c>
+      <c r="C16" s="55">
+        <f>1.8*1.21877354141998</f>
+        <v>2.1937923745559642</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="54">
+        <f>1.8*1.2</f>
+        <v>2.16</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <f>1.8*2.38</f>
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="H16" s="54">
+        <f>1.8*0.57</f>
+        <v>1.026</v>
+      </c>
+      <c r="I16" s="55">
+        <f>1.8*2.39</f>
+        <v>4.3020000000000005</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>

--- a/dairyclimatemodel/results/formatted_results.xlsx
+++ b/dairyclimatemodel/results/formatted_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E803E574-9CC4-4BE4-ABD7-C06730EE4B5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3648E49-1634-4889-87CB-A561E38AE339}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -312,6 +312,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1169,9 @@
       <c r="I2" s="25">
         <v>0.79237373661802324</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="63">
+        <v>0.97716406727427751</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1198,22 +1201,33 @@
       <c r="I3" s="26">
         <v>0.40514386266054647</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="63">
+        <v>2.490799042039572E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1243,6 +1257,9 @@
       <c r="I7" s="28">
         <v>1.2873007249982334E-2</v>
       </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1272,7 +1289,9 @@
       <c r="I8" s="27">
         <v>0.15685684010167808</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="63">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">

--- a/dairyclimatemodel/results/formatted_results.xlsx
+++ b/dairyclimatemodel/results/formatted_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3648E49-1634-4889-87CB-A561E38AE339}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B243C75-261D-462F-88C3-7375D36F5030}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,6 +323,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEE0000"/>
       <color rgb="FFC00000"/>
       <color rgb="FFCC3300"/>
     </mruColors>
@@ -476,7 +477,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="CC3300"/>
+              <a:srgbClr val="EE0000"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -567,9 +568,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -660,7 +659,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1102,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,9 +1171,7 @@
       <c r="I2" s="25">
         <v>0.79237373661802324</v>
       </c>
-      <c r="J2" s="63">
-        <v>0.97716406727427751</v>
-      </c>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1201,33 +1201,25 @@
       <c r="I3" s="26">
         <v>0.40514386266054647</v>
       </c>
-      <c r="J3" s="63">
-        <v>2.490799042039572E-2</v>
-      </c>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="63">
-        <v>0</v>
-      </c>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="63">
-        <v>0</v>
-      </c>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="63">
-        <v>0</v>
-      </c>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1257,9 +1249,7 @@
       <c r="I7" s="28">
         <v>1.2873007249982334E-2</v>
       </c>
-      <c r="J7" s="63">
-        <v>0</v>
-      </c>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1289,9 +1279,7 @@
       <c r="I8" s="27">
         <v>0.15685684010167808</v>
       </c>
-      <c r="J8" s="63">
-        <v>0.25</v>
-      </c>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
